--- a/IntConfiancaY.xlsx
+++ b/IntConfiancaY.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Int. Conf. Y (exercício)" sheetId="2" r:id="rId1"/>
     <sheet name="Intervalo de conf Y (resolvido)" sheetId="1" r:id="rId2"/>
+    <sheet name="Inf.par.Beta" sheetId="4" r:id="rId3"/>
+    <sheet name="Inf par. beta (resolvido)" sheetId="3" r:id="rId4"/>
+    <sheet name="Inf feranadados (resolvido)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,8 +27,182 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>rodri</author>
+  </authors>
+  <commentList>
+    <comment ref="G31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>rodri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Note que este valor para t é o mesmo encontrado na célula g13.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>rodri</author>
+  </authors>
+  <commentList>
+    <comment ref="G31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>rodri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Note que este valor para t é o mesmo encontrado na célula g13.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>rodri</author>
+  </authors>
+  <commentList>
+    <comment ref="G21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>rodri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+inclinação beta1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>rodri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= Sb1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>rodri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+t=b1/Sb1 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>rodri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+se p&lt;nivel de signf. (1 ou 5% para t) ou muito proximo de zero concluimos que existe relação linear signficativamente estatistica medida pelo parâmetro</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
   <si>
     <r>
       <rPr>
@@ -125,6 +302,170 @@
   <si>
     <t>Banda Sup</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Valor de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>b1 =</t>
+  </si>
+  <si>
+    <t>n =</t>
+  </si>
+  <si>
+    <t>SYX =</t>
+  </si>
+  <si>
+    <t>Xbarra=</t>
+  </si>
+  <si>
+    <t>SomaQuadX =</t>
+  </si>
+  <si>
+    <t>Sb1 =</t>
+  </si>
+  <si>
+    <t>sob H0, beta1=0 de modo que</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t=b1/Sb1 </t>
+  </si>
+  <si>
+    <t>tn-2 = t18 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisão </t>
+  </si>
+  <si>
+    <t>Primeiro Método</t>
+  </si>
+  <si>
+    <t>Segundo Método</t>
+  </si>
+  <si>
+    <t>+ou-</t>
+  </si>
+  <si>
+    <t>Decisão</t>
+  </si>
+  <si>
+    <t>Terceiro Método</t>
+  </si>
+  <si>
+    <t>r^2 =</t>
+  </si>
+  <si>
+    <t>r =</t>
+  </si>
+  <si>
+    <t>RESUMO DOS RESULTADOS</t>
+  </si>
+  <si>
+    <t>Estatística de regressão</t>
+  </si>
+  <si>
+    <t>R múltiplo</t>
+  </si>
+  <si>
+    <t>R-Quadrado</t>
+  </si>
+  <si>
+    <t>R-quadrado ajustado</t>
+  </si>
+  <si>
+    <t>Erro padrão</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regressão</t>
+  </si>
+  <si>
+    <t>Resíduo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Interseção</t>
+  </si>
+  <si>
+    <t>gl</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F de significação</t>
+  </si>
+  <si>
+    <t>Coeficientes</t>
+  </si>
+  <si>
+    <t>Stat t</t>
+  </si>
+  <si>
+    <t>valor-P</t>
+  </si>
+  <si>
+    <t>95% inferiores</t>
+  </si>
+  <si>
+    <t>95% superiores</t>
+  </si>
+  <si>
+    <t>Inferior 95,0%</t>
+  </si>
+  <si>
+    <t>Superior 95,0%</t>
+  </si>
+  <si>
+    <t>RESULTADOS DE RESÍDUOS</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Resíduos</t>
+  </si>
+  <si>
+    <t>Resíduos padrão</t>
+  </si>
+  <si>
+    <t>RESULTADOS DE PROBABILIDADE</t>
+  </si>
+  <si>
+    <t>Percentil</t>
+  </si>
+  <si>
+    <t>Previsto(a) Vendas (Y)</t>
+  </si>
+  <si>
+    <t>Terceiro Método (correlação)</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +474,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,16 +510,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -277,12 +645,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,6 +698,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -322,6 +713,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,6 +1564,564 @@
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Clientes (X) Plotagem de resíduos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inf feranadados (resolvido)'!$C$5:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inf feranadados (resolvido)'!$H$28:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.85944588254637111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54358845728837224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.9510692725447427E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31851601901098547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1095077867802523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.10342603036710507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.60248595779500214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.14500686337861879</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19913571136338248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.06335720540023E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.72026501435765322</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.60502728145205431</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.0289528663686802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.175266601155684E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55129475056684818</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16326807706866653</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4138904077114276E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43939418734920643</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.530324050884591</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.4339634004121864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="527486104"/>
+        <c:axId val="464623776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="527486104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Clientes (X)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="464623776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="464623776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Resíduos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="527486104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Plotagem de probabilidade normal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inf feranadados (resolvido)'!$K$28:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inf feranadados (resolvido)'!$L$28:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="530833704"/>
+        <c:axId val="527484536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="530833704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Percentil da amostra</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="527484536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="527484536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Vendas (Y)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="530833704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1975,6 +2946,301 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3276600" y="3689350"/>
+          <a:ext cx="628650" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3225800" y="5448300"/>
+          <a:ext cx="787400" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3276600" y="3689350"/>
+          <a:ext cx="628650" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3225800" y="5448300"/>
+          <a:ext cx="787400" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2240,8 +3506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2375,7 +3641,7 @@
         <v>50692.522499999992</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <f>TINV(5%,H7)</f>
@@ -2823,11 +4089,11 @@
         <f t="shared" si="0"/>
         <v>3950.1225000000027</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
       <c r="K22">
         <f t="shared" si="1"/>
         <v>9.3541389040771143</v>
@@ -2854,9 +4120,9 @@
         <f t="shared" si="0"/>
         <v>12735.122500000005</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
       <c r="K23">
         <f t="shared" si="1"/>
         <v>9.790605812650794</v>
@@ -2883,9 +4149,9 @@
         <f t="shared" si="0"/>
         <v>77757.322500000009</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
       <c r="K24">
         <f t="shared" si="1"/>
         <v>11.239675949115409</v>
@@ -2912,9 +4178,9 @@
         <f t="shared" si="0"/>
         <v>12133.022499999995</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
       <c r="K25">
         <f t="shared" si="1"/>
         <v>7.8439634004121865</v>
@@ -2928,15 +4194,15 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="G26" s="16"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="18"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="19"/>
       <c r="L26" s="12"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2948,7 +4214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O6" sqref="O6:O25"/>
     </sheetView>
   </sheetViews>
@@ -3659,11 +4925,11 @@
         <f t="shared" si="0"/>
         <v>3950.1225000000027</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
       <c r="K22">
         <f t="shared" si="1"/>
         <v>9.3541389040771143</v>
@@ -3698,12 +4964,12 @@
         <f t="shared" si="0"/>
         <v>12735.122500000005</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17">
+      <c r="G23" s="17"/>
+      <c r="H23" s="18">
         <f>TREND($D$6:$D$25,$C$6:$C$25,H5)</f>
         <v>7.6606472988112415</v>
       </c>
-      <c r="I23" s="18"/>
+      <c r="I23" s="19"/>
       <c r="K23">
         <f t="shared" si="1"/>
         <v>9.790605812650794</v>
@@ -3738,12 +5004,12 @@
         <f t="shared" si="0"/>
         <v>77757.322500000009</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17">
+      <c r="G24" s="17"/>
+      <c r="H24" s="18">
         <f>H8*H11*SQRT(1+H12)</f>
         <v>1.0939143232812909</v>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="19"/>
       <c r="K24">
         <f t="shared" si="1"/>
         <v>11.239675949115409</v>
@@ -3778,9 +5044,9 @@
         <f t="shared" si="0"/>
         <v>12133.022499999995</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
       <c r="K25">
         <f t="shared" si="1"/>
         <v>7.8439634004121865</v>
@@ -3802,21 +5068,1827 @@
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="G26" s="16"/>
-      <c r="H26" s="19" t="str">
+      <c r="G26" s="17"/>
+      <c r="H26" s="20" t="str">
         <f>TEXT(H23-H24,"0,000")&amp;" &lt;= Yi &lt;= "&amp;TEXT(H23+H24,"0,000")</f>
         <v>6,567 &lt;= Yi &lt;= 8,755</v>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="19"/>
       <c r="L26" s="12"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="str">
+        <f>'Int. Conf. Y (exercício)'!B3</f>
+        <v>Tabela 1. Número de clientes e vendas semanais, para uma amostra de 20 empresas de prestação de serviços.</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F3" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="str">
+        <f>'Int. Conf. Y (exercício)'!B5</f>
+        <v>Loja</v>
+      </c>
+      <c r="C4" s="35" t="str">
+        <f>'Int. Conf. Y (exercício)'!C5</f>
+        <v>Clientes (X)</v>
+      </c>
+      <c r="D4" s="35" t="str">
+        <f>'Int. Conf. Y (exercício)'!D5</f>
+        <v>Vendas (Y)</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <f>'Int. Conf. Y (exercício)'!B6</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <f>'Int. Conf. Y (exercício)'!C6</f>
+        <v>907</v>
+      </c>
+      <c r="D5" s="13">
+        <f>'Int. Conf. Y (exercício)'!D6</f>
+        <v>11.2</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <f>'Int. Conf. Y (exercício)'!B7</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="13">
+        <f>'Int. Conf. Y (exercício)'!C7</f>
+        <v>926</v>
+      </c>
+      <c r="D6" s="13">
+        <f>'Int. Conf. Y (exercício)'!D7</f>
+        <v>11.05</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <f>'Int. Conf. Y (exercício)'!B8</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="13">
+        <f>'Int. Conf. Y (exercício)'!C8</f>
+        <v>506</v>
+      </c>
+      <c r="D7" s="13">
+        <f>'Int. Conf. Y (exercício)'!D8</f>
+        <v>6.84</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <f>'Int. Conf. Y (exercício)'!B9</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="13">
+        <f>'Int. Conf. Y (exercício)'!C9</f>
+        <v>741</v>
+      </c>
+      <c r="D8" s="13">
+        <f>'Int. Conf. Y (exercício)'!D9</f>
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <f>'Int. Conf. Y (exercício)'!B10</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="13">
+        <f>'Int. Conf. Y (exercício)'!C10</f>
+        <v>789</v>
+      </c>
+      <c r="D9" s="13">
+        <f>'Int. Conf. Y (exercício)'!D10</f>
+        <v>9.42</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <f>'Int. Conf. Y (exercício)'!B11</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="13">
+        <f>'Int. Conf. Y (exercício)'!C11</f>
+        <v>889</v>
+      </c>
+      <c r="D10" s="13">
+        <f>'Int. Conf. Y (exercício)'!D11</f>
+        <v>10.08</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <f>'Int. Conf. Y (exercício)'!B12</f>
+        <v>7</v>
+      </c>
+      <c r="C11" s="13">
+        <f>'Int. Conf. Y (exercício)'!C12</f>
+        <v>874</v>
+      </c>
+      <c r="D11" s="13">
+        <f>'Int. Conf. Y (exercício)'!D12</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <f>'Int. Conf. Y (exercício)'!B13</f>
+        <v>8</v>
+      </c>
+      <c r="C12" s="13">
+        <f>'Int. Conf. Y (exercício)'!C13</f>
+        <v>510</v>
+      </c>
+      <c r="D12" s="13">
+        <f>'Int. Conf. Y (exercício)'!D13</f>
+        <v>6.73</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <f>'Int. Conf. Y (exercício)'!B14</f>
+        <v>9</v>
+      </c>
+      <c r="C13" s="13">
+        <f>'Int. Conf. Y (exercício)'!C14</f>
+        <v>529</v>
+      </c>
+      <c r="D13" s="13">
+        <f>'Int. Conf. Y (exercício)'!D14</f>
+        <v>7.24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <f>'Int. Conf. Y (exercício)'!B15</f>
+        <v>10</v>
+      </c>
+      <c r="C14" s="13">
+        <f>'Int. Conf. Y (exercício)'!C15</f>
+        <v>420</v>
+      </c>
+      <c r="D14" s="13">
+        <f>'Int. Conf. Y (exercício)'!D15</f>
+        <v>6.12</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <f>'Int. Conf. Y (exercício)'!B16</f>
+        <v>11</v>
+      </c>
+      <c r="C15" s="13">
+        <f>'Int. Conf. Y (exercício)'!C16</f>
+        <v>679</v>
+      </c>
+      <c r="D15" s="13">
+        <f>'Int. Conf. Y (exercício)'!D16</f>
+        <v>7.63</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <f>'Int. Conf. Y (exercício)'!B17</f>
+        <v>12</v>
+      </c>
+      <c r="C16" s="13">
+        <f>'Int. Conf. Y (exercício)'!C17</f>
+        <v>872</v>
+      </c>
+      <c r="D16" s="13">
+        <f>'Int. Conf. Y (exercício)'!D17</f>
+        <v>9.43</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <f>'Int. Conf. Y (exercício)'!B18</f>
+        <v>13</v>
+      </c>
+      <c r="C17" s="13">
+        <f>'Int. Conf. Y (exercício)'!C18</f>
+        <v>924</v>
+      </c>
+      <c r="D17" s="13">
+        <f>'Int. Conf. Y (exercício)'!D18</f>
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <f>'Int. Conf. Y (exercício)'!B19</f>
+        <v>14</v>
+      </c>
+      <c r="C18" s="13">
+        <f>'Int. Conf. Y (exercício)'!C19</f>
+        <v>607</v>
+      </c>
+      <c r="D18" s="13">
+        <f>'Int. Conf. Y (exercício)'!D19</f>
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <f>'Int. Conf. Y (exercício)'!B20</f>
+        <v>15</v>
+      </c>
+      <c r="C19" s="13">
+        <f>'Int. Conf. Y (exercício)'!C20</f>
+        <v>452</v>
+      </c>
+      <c r="D19" s="13">
+        <f>'Int. Conf. Y (exercício)'!D20</f>
+        <v>6.92</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <f>'Int. Conf. Y (exercício)'!B21</f>
+        <v>16</v>
+      </c>
+      <c r="C20" s="13">
+        <f>'Int. Conf. Y (exercício)'!C21</f>
+        <v>729</v>
+      </c>
+      <c r="D20" s="13">
+        <f>'Int. Conf. Y (exercício)'!D21</f>
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <f>'Int. Conf. Y (exercício)'!B22</f>
+        <v>17</v>
+      </c>
+      <c r="C21" s="13">
+        <f>'Int. Conf. Y (exercício)'!C22</f>
+        <v>794</v>
+      </c>
+      <c r="D21" s="13">
+        <f>'Int. Conf. Y (exercício)'!D22</f>
+        <v>9.33</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <f>'Int. Conf. Y (exercício)'!B23</f>
+        <v>18</v>
+      </c>
+      <c r="C22" s="13">
+        <f>'Int. Conf. Y (exercício)'!C23</f>
+        <v>844</v>
+      </c>
+      <c r="D22" s="13">
+        <f>'Int. Conf. Y (exercício)'!D23</f>
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <f>'Int. Conf. Y (exercício)'!B24</f>
+        <v>19</v>
+      </c>
+      <c r="C23" s="13">
+        <f>'Int. Conf. Y (exercício)'!C24</f>
+        <v>1010</v>
+      </c>
+      <c r="D23" s="13">
+        <f>'Int. Conf. Y (exercício)'!D24</f>
+        <v>11.77</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="e">
+        <f>IF(AND(G21,I21)&gt;0,"Existe relação linear significativa entre X e Y",IF(OR(G21,I21)&lt;0,"Nenhuma relação está determinada"))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <f>'Int. Conf. Y (exercício)'!B25</f>
+        <v>20</v>
+      </c>
+      <c r="C24" s="13">
+        <f>'Int. Conf. Y (exercício)'!C25</f>
+        <v>621</v>
+      </c>
+      <c r="D24" s="13">
+        <f>'Int. Conf. Y (exercício)'!D25</f>
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F26" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F27" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F28" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F29" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" t="str">
+        <f>'Int. Conf. Y (exercício)'!B3</f>
+        <v>Tabela 1. Número de clientes e vendas semanais, para uma amostra de 20 empresas de prestação de serviços.</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F3" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="str">
+        <f>'Int. Conf. Y (exercício)'!B5</f>
+        <v>Loja</v>
+      </c>
+      <c r="C4" s="24" t="str">
+        <f>'Int. Conf. Y (exercício)'!C5</f>
+        <v>Clientes (X)</v>
+      </c>
+      <c r="D4" s="24" t="str">
+        <f>'Int. Conf. Y (exercício)'!D5</f>
+        <v>Vendas (Y)</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <f>SLOPE(D5:D24,C5:C24)</f>
+        <v>8.7293381714735833E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <f>'Int. Conf. Y (exercício)'!B6</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>'Int. Conf. Y (exercício)'!C6</f>
+        <v>907</v>
+      </c>
+      <c r="D5">
+        <f>'Int. Conf. Y (exercício)'!D6</f>
+        <v>11.2</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <f>COUNT(B:B)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <f>'Int. Conf. Y (exercício)'!B7</f>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f>'Int. Conf. Y (exercício)'!C7</f>
+        <v>926</v>
+      </c>
+      <c r="D6">
+        <f>'Int. Conf. Y (exercício)'!D7</f>
+        <v>11.05</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <f>'Intervalo de conf Y (resolvido)'!H11</f>
+        <v>0.50149521453840828</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <f>'Int. Conf. Y (exercício)'!B8</f>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>'Int. Conf. Y (exercício)'!C8</f>
+        <v>506</v>
+      </c>
+      <c r="D7">
+        <f>'Int. Conf. Y (exercício)'!D8</f>
+        <v>6.84</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(C5:C24)</f>
+        <v>731.15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <f>'Int. Conf. Y (exercício)'!B9</f>
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>'Int. Conf. Y (exercício)'!C9</f>
+        <v>741</v>
+      </c>
+      <c r="D8">
+        <f>'Int. Conf. Y (exercício)'!D9</f>
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <f>SUMSQ(C5:C24)</f>
+        <v>11306209</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <f>'Int. Conf. Y (exercício)'!B10</f>
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f>'Int. Conf. Y (exercício)'!C10</f>
+        <v>789</v>
+      </c>
+      <c r="D9">
+        <f>'Int. Conf. Y (exercício)'!D10</f>
+        <v>9.42</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <f>'Int. Conf. Y (exercício)'!B11</f>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f>'Int. Conf. Y (exercício)'!C11</f>
+        <v>889</v>
+      </c>
+      <c r="D10">
+        <f>'Int. Conf. Y (exercício)'!D11</f>
+        <v>10.08</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <f>G6/SQRT(G8-G5*G7^2)</f>
+        <v>6.3969007751833089E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <f>'Int. Conf. Y (exercício)'!B12</f>
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f>'Int. Conf. Y (exercício)'!C12</f>
+        <v>874</v>
+      </c>
+      <c r="D11">
+        <f>'Int. Conf. Y (exercício)'!D12</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <f>'Int. Conf. Y (exercício)'!B13</f>
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f>'Int. Conf. Y (exercício)'!C13</f>
+        <v>510</v>
+      </c>
+      <c r="D12">
+        <f>'Int. Conf. Y (exercício)'!D13</f>
+        <v>6.73</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <f>'Int. Conf. Y (exercício)'!B14</f>
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f>'Int. Conf. Y (exercício)'!C14</f>
+        <v>529</v>
+      </c>
+      <c r="D13">
+        <f>'Int. Conf. Y (exercício)'!D14</f>
+        <v>7.24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <f>G4/G10</f>
+        <v>13.646199117764862</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <f>'Int. Conf. Y (exercício)'!B15</f>
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <f>'Int. Conf. Y (exercício)'!C15</f>
+        <v>420</v>
+      </c>
+      <c r="D14">
+        <f>'Int. Conf. Y (exercício)'!D15</f>
+        <v>6.12</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <f>'Int. Conf. Y (exercício)'!B16</f>
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <f>'Int. Conf. Y (exercício)'!C16</f>
+        <v>679</v>
+      </c>
+      <c r="D15">
+        <f>'Int. Conf. Y (exercício)'!D16</f>
+        <v>7.63</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <f>TINV(5%,G5-2)</f>
+        <v>2.1009220402410378</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <f>'Int. Conf. Y (exercício)'!B17</f>
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <f>'Int. Conf. Y (exercício)'!C17</f>
+        <v>872</v>
+      </c>
+      <c r="D16">
+        <f>'Int. Conf. Y (exercício)'!D17</f>
+        <v>9.43</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <f>'Int. Conf. Y (exercício)'!B18</f>
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <f>'Int. Conf. Y (exercício)'!C18</f>
+        <v>924</v>
+      </c>
+      <c r="D17">
+        <f>'Int. Conf. Y (exercício)'!D18</f>
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(G13&gt;G15,"Rejeitar H0, ou seja, existe relação linear significativa entre as variáveis","Não rejeitar H0, não existe relação linear significativa entre as variáveis")</f>
+        <v>Rejeitar H0, ou seja, existe relação linear significativa entre as variáveis</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <f>'Int. Conf. Y (exercício)'!B19</f>
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <f>'Int. Conf. Y (exercício)'!C19</f>
+        <v>607</v>
+      </c>
+      <c r="D18">
+        <f>'Int. Conf. Y (exercício)'!D19</f>
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <f>'Int. Conf. Y (exercício)'!B20</f>
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <f>'Int. Conf. Y (exercício)'!C20</f>
+        <v>452</v>
+      </c>
+      <c r="D19">
+        <f>'Int. Conf. Y (exercício)'!D20</f>
+        <v>6.92</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <f>'Int. Conf. Y (exercício)'!B21</f>
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <f>'Int. Conf. Y (exercício)'!C21</f>
+        <v>729</v>
+      </c>
+      <c r="D20">
+        <f>'Int. Conf. Y (exercício)'!D21</f>
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <f>'Int. Conf. Y (exercício)'!B22</f>
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <f>'Int. Conf. Y (exercício)'!C22</f>
+        <v>794</v>
+      </c>
+      <c r="D21">
+        <f>'Int. Conf. Y (exercício)'!D22</f>
+        <v>9.33</v>
+      </c>
+      <c r="G21">
+        <f>SLOPE(D5:D24,C5:C24)</f>
+        <v>8.7293381714735833E-3</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21">
+        <f>TINV(5%,18)*G10</f>
+        <v>1.3439389827817594E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <f>'Int. Conf. Y (exercício)'!B23</f>
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <f>'Int. Conf. Y (exercício)'!C23</f>
+        <v>844</v>
+      </c>
+      <c r="D22">
+        <f>'Int. Conf. Y (exercício)'!D23</f>
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <f>'Int. Conf. Y (exercício)'!B24</f>
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <f>'Int. Conf. Y (exercício)'!C24</f>
+        <v>1010</v>
+      </c>
+      <c r="D23">
+        <f>'Int. Conf. Y (exercício)'!D24</f>
+        <v>11.77</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(AND(G21,I21)&gt;0,"Existe relação linear significativa entre X e Y",IF(OR(G21,I21)&lt;0,"Nenhuma relação está determinada"))</f>
+        <v>Existe relação linear significativa entre X e Y</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <f>'Int. Conf. Y (exercício)'!B25</f>
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <f>'Int. Conf. Y (exercício)'!C25</f>
+        <v>621</v>
+      </c>
+      <c r="D24">
+        <f>'Int. Conf. Y (exercício)'!D25</f>
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F26" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F27" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27">
+        <f>CORREL(C5:C24,D5:D24)</f>
+        <v>0.95491320010927916</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28">
+        <f>RSQ(D5:D24,C5:C24)</f>
+        <v>0.91185921974294448</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="13">
+        <f>COUNT(B:B)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <f>G27/SQRT((1-G28)/18)</f>
+        <v>13.646199117764906</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B2" t="str">
+        <f>'Int. Conf. Y (exercício)'!B3</f>
+        <v>Tabela 1. Número de clientes e vendas semanais, para uma amostra de 20 empresas de prestação de serviços.</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="str">
+        <f>'Int. Conf. Y (exercício)'!B5</f>
+        <v>Loja</v>
+      </c>
+      <c r="C4" s="24" t="str">
+        <f>'Int. Conf. Y (exercício)'!C5</f>
+        <v>Clientes (X)</v>
+      </c>
+      <c r="D4" s="24" t="str">
+        <f>'Int. Conf. Y (exercício)'!D5</f>
+        <v>Vendas (Y)</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <f>'Int. Conf. Y (exercício)'!B6</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>'Int. Conf. Y (exercício)'!C6</f>
+        <v>907</v>
+      </c>
+      <c r="D5">
+        <f>'Int. Conf. Y (exercício)'!D6</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <f>'Int. Conf. Y (exercício)'!B7</f>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f>'Int. Conf. Y (exercício)'!C7</f>
+        <v>926</v>
+      </c>
+      <c r="D6">
+        <f>'Int. Conf. Y (exercício)'!D7</f>
+        <v>11.05</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <f>'Int. Conf. Y (exercício)'!B8</f>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>'Int. Conf. Y (exercício)'!C8</f>
+        <v>506</v>
+      </c>
+      <c r="D7">
+        <f>'Int. Conf. Y (exercício)'!D8</f>
+        <v>6.84</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0.95491320010927894</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <f>'Int. Conf. Y (exercício)'!B9</f>
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>'Int. Conf. Y (exercício)'!C9</f>
+        <v>741</v>
+      </c>
+      <c r="D8">
+        <f>'Int. Conf. Y (exercício)'!D9</f>
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0.91185921974294382</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <f>'Int. Conf. Y (exercício)'!B10</f>
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f>'Int. Conf. Y (exercício)'!C10</f>
+        <v>789</v>
+      </c>
+      <c r="D9">
+        <f>'Int. Conf. Y (exercício)'!D10</f>
+        <v>9.42</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0.90696250972866288</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <f>'Int. Conf. Y (exercício)'!B11</f>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f>'Int. Conf. Y (exercício)'!C11</f>
+        <v>889</v>
+      </c>
+      <c r="D10">
+        <f>'Int. Conf. Y (exercício)'!D11</f>
+        <v>10.08</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.50149521453840828</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <f>'Int. Conf. Y (exercício)'!B12</f>
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f>'Int. Conf. Y (exercício)'!C12</f>
+        <v>874</v>
+      </c>
+      <c r="D11">
+        <f>'Int. Conf. Y (exercício)'!D12</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <f>'Int. Conf. Y (exercício)'!B13</f>
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f>'Int. Conf. Y (exercício)'!C13</f>
+        <v>510</v>
+      </c>
+      <c r="D12">
+        <f>'Int. Conf. Y (exercício)'!D13</f>
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <f>'Int. Conf. Y (exercício)'!B14</f>
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f>'Int. Conf. Y (exercício)'!C14</f>
+        <v>529</v>
+      </c>
+      <c r="D13">
+        <f>'Int. Conf. Y (exercício)'!D14</f>
+        <v>7.24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <f>'Int. Conf. Y (exercício)'!B15</f>
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <f>'Int. Conf. Y (exercício)'!C15</f>
+        <v>420</v>
+      </c>
+      <c r="D14">
+        <f>'Int. Conf. Y (exercício)'!D15</f>
+        <v>6.12</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <f>'Int. Conf. Y (exercício)'!B16</f>
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <f>'Int. Conf. Y (exercício)'!C16</f>
+        <v>679</v>
+      </c>
+      <c r="D15">
+        <f>'Int. Conf. Y (exercício)'!D16</f>
+        <v>7.63</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="28">
+        <v>1</v>
+      </c>
+      <c r="H15" s="28">
+        <v>46.833540896311362</v>
+      </c>
+      <c r="I15" s="28">
+        <v>46.833540896311362</v>
+      </c>
+      <c r="J15" s="28">
+        <v>186.21875036168615</v>
+      </c>
+      <c r="K15" s="28">
+        <v>6.2062084968614724E-11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <f>'Int. Conf. Y (exercício)'!B17</f>
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <f>'Int. Conf. Y (exercício)'!C17</f>
+        <v>872</v>
+      </c>
+      <c r="D16">
+        <f>'Int. Conf. Y (exercício)'!D17</f>
+        <v>9.43</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="28">
+        <v>18</v>
+      </c>
+      <c r="H16" s="28">
+        <v>4.5269541036886345</v>
+      </c>
+      <c r="I16" s="28">
+        <v>0.25149745020492414</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <f>'Int. Conf. Y (exercício)'!B18</f>
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <f>'Int. Conf. Y (exercício)'!C18</f>
+        <v>924</v>
+      </c>
+      <c r="D17">
+        <f>'Int. Conf. Y (exercício)'!D18</f>
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="29">
+        <v>19</v>
+      </c>
+      <c r="H17" s="29">
+        <v>51.360495</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <f>'Int. Conf. Y (exercício)'!B19</f>
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <f>'Int. Conf. Y (exercício)'!C19</f>
+        <v>607</v>
+      </c>
+      <c r="D18">
+        <f>'Int. Conf. Y (exercício)'!D19</f>
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <f>'Int. Conf. Y (exercício)'!B20</f>
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <f>'Int. Conf. Y (exercício)'!C20</f>
+        <v>452</v>
+      </c>
+      <c r="D19">
+        <f>'Int. Conf. Y (exercício)'!D20</f>
+        <v>6.92</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <f>'Int. Conf. Y (exercício)'!B21</f>
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <f>'Int. Conf. Y (exercício)'!C21</f>
+        <v>729</v>
+      </c>
+      <c r="D20">
+        <f>'Int. Conf. Y (exercício)'!D21</f>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="28">
+        <v>2.4230443959270955</v>
+      </c>
+      <c r="H20" s="33">
+        <v>0.48096460943053704</v>
+      </c>
+      <c r="I20" s="28">
+        <v>5.0378850094521184</v>
+      </c>
+      <c r="J20" s="28">
+        <v>8.5538847661034592E-5</v>
+      </c>
+      <c r="K20" s="28">
+        <v>1.4125752473985578</v>
+      </c>
+      <c r="L20" s="28">
+        <v>3.4335135444556331</v>
+      </c>
+      <c r="M20" s="28">
+        <v>1.4125752473985578</v>
+      </c>
+      <c r="N20" s="28">
+        <v>3.4335135444556331</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <f>'Int. Conf. Y (exercício)'!B22</f>
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <f>'Int. Conf. Y (exercício)'!C22</f>
+        <v>794</v>
+      </c>
+      <c r="D21">
+        <f>'Int. Conf. Y (exercício)'!D22</f>
+        <v>9.33</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="34">
+        <v>8.7293381714735763E-3</v>
+      </c>
+      <c r="H21" s="34">
+        <v>6.3969007751833111E-4</v>
+      </c>
+      <c r="I21" s="34">
+        <v>13.646199117764846</v>
+      </c>
+      <c r="J21" s="34">
+        <v>6.2062084968614957E-11</v>
+      </c>
+      <c r="K21" s="34">
+        <v>7.3853991886918165E-3</v>
+      </c>
+      <c r="L21" s="34">
+        <v>1.0073277154255336E-2</v>
+      </c>
+      <c r="M21" s="34">
+        <v>7.3853991886918165E-3</v>
+      </c>
+      <c r="N21" s="34">
+        <v>1.0073277154255336E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <f>'Int. Conf. Y (exercício)'!B23</f>
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <f>'Int. Conf. Y (exercício)'!C23</f>
+        <v>844</v>
+      </c>
+      <c r="D22">
+        <f>'Int. Conf. Y (exercício)'!D23</f>
+        <v>10.23</v>
+      </c>
+      <c r="I22" s="9">
+        <f>TINV(5%,G11-2)</f>
+        <v>2.1009220402410378</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <f>'Int. Conf. Y (exercício)'!B24</f>
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <f>'Int. Conf. Y (exercício)'!C24</f>
+        <v>1010</v>
+      </c>
+      <c r="D23">
+        <f>'Int. Conf. Y (exercício)'!D24</f>
+        <v>11.77</v>
+      </c>
+      <c r="I23" t="str">
+        <f>IF(I21&gt;I22,"Rejeitar H0, ou seja, existe relação linear significativa entre as variáveis","Não rejeitar H0, não existe relação linear significativa entre as variáveis")</f>
+        <v>Rejeitar H0, ou seja, existe relação linear significativa entre as variáveis</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <f>'Int. Conf. Y (exercício)'!B25</f>
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <f>'Int. Conf. Y (exercício)'!C25</f>
+        <v>621</v>
+      </c>
+      <c r="D24">
+        <f>'Int. Conf. Y (exercício)'!D25</f>
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F27" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F28" s="28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="28">
+        <v>10.340554117453628</v>
+      </c>
+      <c r="H28" s="28">
+        <v>0.85944588254637111</v>
+      </c>
+      <c r="I28" s="28">
+        <v>1.7607280786116457</v>
+      </c>
+      <c r="K28" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="L28" s="28">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F29" s="28">
+        <v>2</v>
+      </c>
+      <c r="G29" s="28">
+        <v>10.506411542711628</v>
+      </c>
+      <c r="H29" s="28">
+        <v>0.54358845728837224</v>
+      </c>
+      <c r="I29" s="28">
+        <v>1.1136378443295221</v>
+      </c>
+      <c r="K29" s="28">
+        <v>7.5</v>
+      </c>
+      <c r="L29" s="28">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F30" s="28">
+        <v>3</v>
+      </c>
+      <c r="G30" s="28">
+        <v>6.8400895106927253</v>
+      </c>
+      <c r="H30" s="28">
+        <v>-8.9510692725447427E-5</v>
+      </c>
+      <c r="I30" s="28">
+        <v>-1.8337860849449236E-4</v>
+      </c>
+      <c r="K30" s="28">
+        <v>12.5</v>
+      </c>
+      <c r="L30" s="28">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F31" s="28">
+        <v>4</v>
+      </c>
+      <c r="G31" s="28">
+        <v>8.8914839809890154</v>
+      </c>
+      <c r="H31" s="28">
+        <v>0.31851601901098547</v>
+      </c>
+      <c r="I31" s="28">
+        <v>0.65253683745466551</v>
+      </c>
+      <c r="K31" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="L31" s="28">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F32" s="28">
+        <v>5</v>
+      </c>
+      <c r="G32" s="28">
+        <v>9.3104922132197476</v>
+      </c>
+      <c r="H32" s="28">
+        <v>0.1095077867802523</v>
+      </c>
+      <c r="I32" s="28">
+        <v>0.22434621996132983</v>
+      </c>
+      <c r="K32" s="28">
+        <v>22.5</v>
+      </c>
+      <c r="L32" s="28">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F33" s="28">
+        <v>6</v>
+      </c>
+      <c r="G33" s="28">
+        <v>10.183426030367105</v>
+      </c>
+      <c r="H33" s="28">
+        <v>-0.10342603036710507</v>
+      </c>
+      <c r="I33" s="28">
+        <v>-0.21188665793262115</v>
+      </c>
+      <c r="K33" s="28">
+        <v>27.5</v>
+      </c>
+      <c r="L33" s="28">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F34" s="28">
+        <v>7</v>
+      </c>
+      <c r="G34" s="28">
+        <v>10.052485957795001</v>
+      </c>
+      <c r="H34" s="28">
+        <v>-0.60248595779500214</v>
+      </c>
+      <c r="I34" s="28">
+        <v>-1.2342998720476799</v>
+      </c>
+      <c r="K34" s="28">
+        <v>32.5</v>
+      </c>
+      <c r="L34" s="28">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F35" s="28">
+        <v>8</v>
+      </c>
+      <c r="G35" s="28">
+        <v>6.8750068633786192</v>
+      </c>
+      <c r="H35" s="28">
+        <v>-0.14500686337861879</v>
+      </c>
+      <c r="I35" s="28">
+        <v>-0.29707240575250682</v>
+      </c>
+      <c r="K35" s="28">
+        <v>37.5</v>
+      </c>
+      <c r="L35" s="28">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F36" s="28">
+        <v>9</v>
+      </c>
+      <c r="G36" s="28">
+        <v>7.0408642886366177</v>
+      </c>
+      <c r="H36" s="28">
+        <v>0.19913571136338248</v>
+      </c>
+      <c r="I36" s="28">
+        <v>0.4079649988117709</v>
+      </c>
+      <c r="K36" s="28">
+        <v>42.5</v>
+      </c>
+      <c r="L36" s="28">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F37" s="28">
+        <v>10</v>
+      </c>
+      <c r="G37" s="28">
+        <v>6.0893664279459978</v>
+      </c>
+      <c r="H37" s="28">
+        <v>3.06335720540023E-2</v>
+      </c>
+      <c r="I37" s="28">
+        <v>6.2758332501226102E-2</v>
+      </c>
+      <c r="K37" s="28">
+        <v>47.5</v>
+      </c>
+      <c r="L37" s="28">
+        <v>9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F38" s="28">
+        <v>11</v>
+      </c>
+      <c r="G38" s="28">
+        <v>8.3502650143576531</v>
+      </c>
+      <c r="H38" s="28">
+        <v>-0.72026501435765322</v>
+      </c>
+      <c r="I38" s="28">
+        <v>-1.4755912624349741</v>
+      </c>
+      <c r="K38" s="28">
+        <v>52.5</v>
+      </c>
+      <c r="L38" s="28">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F39" s="28">
+        <v>12</v>
+      </c>
+      <c r="G39" s="28">
+        <v>10.035027281452054</v>
+      </c>
+      <c r="H39" s="28">
+        <v>-0.60502728145205431</v>
+      </c>
+      <c r="I39" s="28">
+        <v>-1.2395062265263987</v>
+      </c>
+      <c r="K39" s="28">
+        <v>57.5</v>
+      </c>
+      <c r="L39" s="28">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F40" s="28">
+        <v>13</v>
+      </c>
+      <c r="G40" s="28">
+        <v>10.488952866368681</v>
+      </c>
+      <c r="H40" s="28">
+        <v>-1.0289528663686802</v>
+      </c>
+      <c r="I40" s="28">
+        <v>-2.1079933480110911</v>
+      </c>
+      <c r="K40" s="28">
+        <v>62.5</v>
+      </c>
+      <c r="L40" s="28">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F41" s="28">
+        <v>14</v>
+      </c>
+      <c r="G41" s="28">
+        <v>7.7217526660115565</v>
+      </c>
+      <c r="H41" s="28">
+        <v>-8.175266601155684E-2</v>
+      </c>
+      <c r="I41" s="28">
+        <v>-0.16748490797515875</v>
+      </c>
+      <c r="K41" s="28">
+        <v>67.5</v>
+      </c>
+      <c r="L41" s="28">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F42" s="28">
+        <v>15</v>
+      </c>
+      <c r="G42" s="28">
+        <v>6.3687052494331517</v>
+      </c>
+      <c r="H42" s="28">
+        <v>0.55129475056684818</v>
+      </c>
+      <c r="I42" s="28">
+        <v>1.1294255596854061</v>
+      </c>
+      <c r="K42" s="28">
+        <v>72.5</v>
+      </c>
+      <c r="L42" s="28">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F43" s="28">
+        <v>16</v>
+      </c>
+      <c r="G43" s="28">
+        <v>8.7867319229313328</v>
+      </c>
+      <c r="H43" s="28">
+        <v>0.16326807706866653</v>
+      </c>
+      <c r="I43" s="28">
+        <v>0.33448375688764898</v>
+      </c>
+      <c r="K43" s="28">
+        <v>77.5</v>
+      </c>
+      <c r="L43" s="28">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="44" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F44" s="28">
+        <v>17</v>
+      </c>
+      <c r="G44" s="28">
+        <v>9.3541389040771143</v>
+      </c>
+      <c r="H44" s="28">
+        <v>-2.4138904077114276E-2</v>
+      </c>
+      <c r="I44" s="28">
+        <v>-4.9452847536558014E-2</v>
+      </c>
+      <c r="K44" s="28">
+        <v>82.5</v>
+      </c>
+      <c r="L44" s="28">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="45" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F45" s="28">
+        <v>18</v>
+      </c>
+      <c r="G45" s="28">
+        <v>9.790605812650794</v>
+      </c>
+      <c r="H45" s="28">
+        <v>0.43939418734920643</v>
+      </c>
+      <c r="I45" s="28">
+        <v>0.90017731070199347</v>
+      </c>
+      <c r="K45" s="28">
+        <v>87.5</v>
+      </c>
+      <c r="L45" s="28">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="46" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F46" s="28">
+        <v>19</v>
+      </c>
+      <c r="G46" s="28">
+        <v>11.239675949115409</v>
+      </c>
+      <c r="H46" s="28">
+        <v>0.530324050884591</v>
+      </c>
+      <c r="I46" s="28">
+        <v>1.0864633435546072</v>
+      </c>
+      <c r="K46" s="28">
+        <v>92.5</v>
+      </c>
+      <c r="L46" s="28">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="47" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F47" s="29">
+        <v>20</v>
+      </c>
+      <c r="G47" s="29">
+        <v>7.8439634004121865</v>
+      </c>
+      <c r="H47" s="29">
+        <v>-0.4339634004121864</v>
+      </c>
+      <c r="I47" s="29">
+        <v>-0.88905137567437109</v>
+      </c>
+      <c r="K47" s="29">
+        <v>97.5</v>
+      </c>
+      <c r="L47" s="29">
+        <v>11.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="L28:L47">
+    <sortCondition ref="L28"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimativas do Intervalo de conf" prompt="Intervalos de confiança superior e inferior para a inclinação " sqref="K21:N21"/>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/IntConfiancaY.xlsx
+++ b/IntConfiancaY.xlsx
@@ -1,39 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Desktop\Curso Econometria no Excel\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weback\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A4B41F-3F27-4E41-A70C-5B45AE94349F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Int. Conf. Y (exercício)" sheetId="2" r:id="rId1"/>
     <sheet name="Intervalo de conf Y (resolvido)" sheetId="1" r:id="rId2"/>
     <sheet name="Inf.par.Beta" sheetId="4" r:id="rId3"/>
-    <sheet name="Inf par. beta (resolvido)" sheetId="3" r:id="rId4"/>
-    <sheet name="Inf feranadados (resolvido)" sheetId="5" r:id="rId5"/>
+    <sheet name="Inf par. beta (resolvido)" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Inf feranadados (resolvido)" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>rodri</author>
   </authors>
   <commentList>
-    <comment ref="G31" authorId="0" shapeId="0">
+    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,12 +74,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>rodri</author>
   </authors>
   <commentList>
-    <comment ref="G31" authorId="0" shapeId="0">
+    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -96,12 +108,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>rodri</author>
   </authors>
   <commentList>
-    <comment ref="G21" authorId="0" shapeId="0">
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0" shapeId="0">
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0" shapeId="0">
+    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="0" shapeId="0">
+    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -470,7 +482,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -670,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,11 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -719,26 +727,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -754,7 +761,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -798,7 +805,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1009,6 +1015,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2EB-4E2F-B8ED-5880B3DCA587}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1191,6 +1202,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2EB-4E2F-B8ED-5880B3DCA587}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1357,6 +1373,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D2EB-4E2F-B8ED-5880B3DCA587}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1505,7 +1526,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1573,7 +1593,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1602,7 +1622,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1758,6 +1777,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-482B-4070-B098-A1352AB3634E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1793,7 +1817,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1827,7 +1850,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1852,7 +1874,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1881,7 +1903,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2037,6 +2058,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C687-4859-8A5A-C527D51131EA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2072,7 +2098,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2106,7 +2131,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2703,7 +2727,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2758,7 +2788,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2818,7 +2854,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2873,7 +2915,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3"/>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2928,7 +2976,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2963,7 +3017,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3018,7 +3078,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3078,7 +3144,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3133,7 +3205,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3193,7 +3271,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3223,7 +3307,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3503,7 +3593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4121,8 +4211,7 @@
         <v>12735.122500000005</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="18"/>
       <c r="K23">
         <f t="shared" si="1"/>
         <v>9.790605812650794</v>
@@ -4150,8 +4239,7 @@
         <v>77757.322500000009</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
+      <c r="I24" s="18"/>
       <c r="K24">
         <f t="shared" si="1"/>
         <v>11.239675949115409</v>
@@ -4179,8 +4267,7 @@
         <v>12133.022499999995</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
+      <c r="I25" s="18"/>
       <c r="K25">
         <f t="shared" si="1"/>
         <v>7.8439634004121865</v>
@@ -4195,14 +4282,14 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="G26" s="17"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="19"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="18"/>
       <c r="L26" s="12"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4211,7 +4298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:P27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -4965,11 +5052,11 @@
         <v>12735.122500000005</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="18">
+      <c r="H23">
         <f>TREND($D$6:$D$25,$C$6:$C$25,H5)</f>
         <v>7.6606472988112415</v>
       </c>
-      <c r="I23" s="19"/>
+      <c r="I23" s="18"/>
       <c r="K23">
         <f t="shared" si="1"/>
         <v>9.790605812650794</v>
@@ -5005,11 +5092,11 @@
         <v>77757.322500000009</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="18">
+      <c r="H24">
         <f>H8*H11*SQRT(1+H12)</f>
         <v>1.0939143232812909</v>
       </c>
-      <c r="I24" s="19"/>
+      <c r="I24" s="18"/>
       <c r="K24">
         <f t="shared" si="1"/>
         <v>11.239675949115409</v>
@@ -5045,8 +5132,7 @@
         <v>12133.022499999995</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
+      <c r="I25" s="18"/>
       <c r="K25">
         <f t="shared" si="1"/>
         <v>7.8439634004121865</v>
@@ -5069,17 +5155,17 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="G26" s="17"/>
-      <c r="H26" s="20" t="str">
+      <c r="H26" s="13" t="str">
         <f>TEXT(H23-H24,"0,000")&amp;" &lt;= Yi &lt;= "&amp;TEXT(H23+H24,"0,000")</f>
         <v>6,567 &lt;= Yi &lt;= 8,755</v>
       </c>
-      <c r="I26" s="19"/>
+      <c r="I26" s="18"/>
       <c r="L26" s="12"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5088,11 +5174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5114,19 +5200,19 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="str">
+      <c r="B4" s="22" t="str">
         <f>'Int. Conf. Y (exercício)'!B5</f>
         <v>Loja</v>
       </c>
-      <c r="C4" s="35" t="str">
+      <c r="C4" s="32" t="str">
         <f>'Int. Conf. Y (exercício)'!C5</f>
         <v>Clientes (X)</v>
       </c>
-      <c r="D4" s="35" t="str">
+      <c r="D4" s="32" t="str">
         <f>'Int. Conf. Y (exercício)'!D5</f>
         <v>Vendas (Y)</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5143,7 +5229,7 @@
         <f>'Int. Conf. Y (exercício)'!D6</f>
         <v>11.2</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5160,7 +5246,7 @@
         <f>'Int. Conf. Y (exercício)'!D7</f>
         <v>11.05</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5177,7 +5263,7 @@
         <f>'Int. Conf. Y (exercício)'!D8</f>
         <v>6.84</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5194,7 +5280,7 @@
         <f>'Int. Conf. Y (exercício)'!D9</f>
         <v>9.2100000000000009</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5226,7 +5312,7 @@
         <f>'Int. Conf. Y (exercício)'!D11</f>
         <v>10.08</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5258,7 +5344,7 @@
         <f>'Int. Conf. Y (exercício)'!D13</f>
         <v>6.73</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="24" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5401,7 +5487,7 @@
         <f>'Int. Conf. Y (exercício)'!D22</f>
         <v>9.33</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="25" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5460,23 +5546,23 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="24" t="s">
         <v>28</v>
       </c>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F30" s="25"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -5487,11 +5573,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5513,19 +5599,19 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="str">
+      <c r="B4" s="22" t="str">
         <f>'Int. Conf. Y (exercício)'!B5</f>
         <v>Loja</v>
       </c>
-      <c r="C4" s="24" t="str">
+      <c r="C4" s="22" t="str">
         <f>'Int. Conf. Y (exercício)'!C5</f>
         <v>Clientes (X)</v>
       </c>
-      <c r="D4" s="24" t="str">
+      <c r="D4" s="22" t="str">
         <f>'Int. Conf. Y (exercício)'!D5</f>
         <v>Vendas (Y)</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>27</v>
       </c>
       <c r="G4">
@@ -5546,7 +5632,7 @@
         <f>'Int. Conf. Y (exercício)'!D6</f>
         <v>11.2</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>28</v>
       </c>
       <c r="G5">
@@ -5567,7 +5653,7 @@
         <f>'Int. Conf. Y (exercício)'!D7</f>
         <v>11.05</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="24" t="s">
         <v>29</v>
       </c>
       <c r="G6">
@@ -5588,7 +5674,7 @@
         <f>'Int. Conf. Y (exercício)'!D8</f>
         <v>6.84</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G7">
@@ -5609,7 +5695,7 @@
         <f>'Int. Conf. Y (exercício)'!D9</f>
         <v>9.2100000000000009</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G8">
@@ -5645,7 +5731,7 @@
         <f>'Int. Conf. Y (exercício)'!D11</f>
         <v>10.08</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>32</v>
       </c>
       <c r="G10">
@@ -5681,7 +5767,7 @@
         <f>'Int. Conf. Y (exercício)'!D13</f>
         <v>6.73</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="24" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5840,7 +5926,7 @@
         <f>SLOPE(D5:D24,C5:C24)</f>
         <v>8.7293381714735833E-3</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="25" t="s">
         <v>39</v>
       </c>
       <c r="I21">
@@ -5903,7 +5989,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G27">
@@ -5912,7 +5998,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G28">
@@ -5921,7 +6007,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="23" t="s">
         <v>28</v>
       </c>
       <c r="G29" s="13">
@@ -5930,7 +6016,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F30" s="25"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G31">
@@ -5946,11 +6032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5971,15 +6057,15 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="str">
+      <c r="B4" s="22" t="str">
         <f>'Int. Conf. Y (exercício)'!B5</f>
         <v>Loja</v>
       </c>
-      <c r="C4" s="24" t="str">
+      <c r="C4" s="22" t="str">
         <f>'Int. Conf. Y (exercício)'!C5</f>
         <v>Clientes (X)</v>
       </c>
-      <c r="D4" s="24" t="str">
+      <c r="D4" s="22" t="str">
         <f>'Int. Conf. Y (exercício)'!D5</f>
         <v>Vendas (Y)</v>
       </c>
@@ -6014,10 +6100,10 @@
         <f>'Int. Conf. Y (exercício)'!D7</f>
         <v>11.05</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7">
@@ -6032,10 +6118,10 @@
         <f>'Int. Conf. Y (exercício)'!D8</f>
         <v>6.84</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7">
         <v>0.95491320010927894</v>
       </c>
     </row>
@@ -6052,10 +6138,10 @@
         <f>'Int. Conf. Y (exercício)'!D9</f>
         <v>9.2100000000000009</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8">
         <v>0.91185921974294382</v>
       </c>
     </row>
@@ -6072,10 +6158,10 @@
         <f>'Int. Conf. Y (exercício)'!D10</f>
         <v>9.42</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9">
         <v>0.90696250972866288</v>
       </c>
     </row>
@@ -6092,10 +6178,10 @@
         <f>'Int. Conf. Y (exercício)'!D11</f>
         <v>10.08</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10">
         <v>0.50149521453840828</v>
       </c>
     </row>
@@ -6112,10 +6198,10 @@
         <f>'Int. Conf. Y (exercício)'!D12</f>
         <v>9.4499999999999993</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="26">
         <v>20</v>
       </c>
     </row>
@@ -6163,20 +6249,20 @@
         <f>'Int. Conf. Y (exercício)'!D15</f>
         <v>6.12</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6193,22 +6279,22 @@
         <f>'Int. Conf. Y (exercício)'!D16</f>
         <v>7.63</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15">
         <v>46.833540896311362</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15">
         <v>46.833540896311362</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15">
         <v>186.21875036168615</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15">
         <v>6.2062084968614724E-11</v>
       </c>
     </row>
@@ -6225,20 +6311,18 @@
         <f>'Int. Conf. Y (exercício)'!D17</f>
         <v>9.43</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16">
         <v>18</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16">
         <v>4.5269541036886345</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16">
         <v>0.25149745020492414</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17">
@@ -6253,18 +6337,18 @@
         <f>'Int. Conf. Y (exercício)'!D18</f>
         <v>9.4600000000000009</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="26">
         <v>19</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="26">
         <v>51.360495</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18">
@@ -6293,29 +6377,29 @@
         <f>'Int. Conf. Y (exercício)'!D20</f>
         <v>6.92</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30" t="s">
+      <c r="F19" s="27"/>
+      <c r="G19" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="M19" s="30" t="s">
+      <c r="M19" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="N19" s="27" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6332,31 +6416,31 @@
         <f>'Int. Conf. Y (exercício)'!D21</f>
         <v>8.9499999999999993</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20">
         <v>2.4230443959270955</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="30">
         <v>0.48096460943053704</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20">
         <v>5.0378850094521184</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20">
         <v>8.5538847661034592E-5</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20">
         <v>1.4125752473985578</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20">
         <v>3.4335135444556331</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20">
         <v>1.4125752473985578</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20">
         <v>3.4335135444556331</v>
       </c>
     </row>
@@ -6373,31 +6457,31 @@
         <f>'Int. Conf. Y (exercício)'!D22</f>
         <v>9.33</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="31">
         <v>8.7293381714735763E-3</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="31">
         <v>6.3969007751833111E-4</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="31">
         <v>13.646199117764846</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="31">
         <v>6.2062084968614957E-11</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="31">
         <v>7.3853991886918165E-3</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="31">
         <v>1.0073277154255336E-2</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="31">
         <v>7.3853991886918165E-3</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="31">
         <v>1.0073277154255336E-2</v>
       </c>
     </row>
@@ -6461,431 +6545,431 @@
     </row>
     <row r="26" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F28" s="28">
+      <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28">
         <v>10.340554117453628</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28">
         <v>0.85944588254637111</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28">
         <v>1.7607280786116457</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28">
         <v>2.5</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28">
         <v>6.12</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F29" s="28">
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29">
         <v>10.506411542711628</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29">
         <v>0.54358845728837224</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29">
         <v>1.1136378443295221</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29">
         <v>7.5</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29">
         <v>6.73</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F30" s="28">
+      <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30">
         <v>6.8400895106927253</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30">
         <v>-8.9510692725447427E-5</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30">
         <v>-1.8337860849449236E-4</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K30">
         <v>12.5</v>
       </c>
-      <c r="L30" s="28">
+      <c r="L30">
         <v>6.84</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F31" s="28">
+      <c r="F31">
         <v>4</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31">
         <v>8.8914839809890154</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31">
         <v>0.31851601901098547</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31">
         <v>0.65253683745466551</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31">
         <v>17.5</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31">
         <v>6.92</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F32" s="28">
+      <c r="F32">
         <v>5</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32">
         <v>9.3104922132197476</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32">
         <v>0.1095077867802523</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32">
         <v>0.22434621996132983</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32">
         <v>22.5</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32">
         <v>7.24</v>
       </c>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F33" s="28">
+      <c r="F33">
         <v>6</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33">
         <v>10.183426030367105</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33">
         <v>-0.10342603036710507</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33">
         <v>-0.21188665793262115</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33">
         <v>27.5</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33">
         <v>7.41</v>
       </c>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F34" s="28">
+      <c r="F34">
         <v>7</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34">
         <v>10.052485957795001</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34">
         <v>-0.60248595779500214</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34">
         <v>-1.2342998720476799</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34">
         <v>32.5</v>
       </c>
-      <c r="L34" s="28">
+      <c r="L34">
         <v>7.63</v>
       </c>
     </row>
     <row r="35" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F35" s="28">
+      <c r="F35">
         <v>8</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35">
         <v>6.8750068633786192</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35">
         <v>-0.14500686337861879</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35">
         <v>-0.29707240575250682</v>
       </c>
-      <c r="K35" s="28">
+      <c r="K35">
         <v>37.5</v>
       </c>
-      <c r="L35" s="28">
+      <c r="L35">
         <v>7.64</v>
       </c>
     </row>
     <row r="36" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F36" s="28">
+      <c r="F36">
         <v>9</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36">
         <v>7.0408642886366177</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36">
         <v>0.19913571136338248</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36">
         <v>0.4079649988117709</v>
       </c>
-      <c r="K36" s="28">
+      <c r="K36">
         <v>42.5</v>
       </c>
-      <c r="L36" s="28">
+      <c r="L36">
         <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="37" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F37" s="28">
+      <c r="F37">
         <v>10</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37">
         <v>6.0893664279459978</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37">
         <v>3.06335720540023E-2</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37">
         <v>6.2758332501226102E-2</v>
       </c>
-      <c r="K37" s="28">
+      <c r="K37">
         <v>47.5</v>
       </c>
-      <c r="L37" s="28">
+      <c r="L37">
         <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="38" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F38" s="28">
+      <c r="F38">
         <v>11</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38">
         <v>8.3502650143576531</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38">
         <v>-0.72026501435765322</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38">
         <v>-1.4755912624349741</v>
       </c>
-      <c r="K38" s="28">
+      <c r="K38">
         <v>52.5</v>
       </c>
-      <c r="L38" s="28">
+      <c r="L38">
         <v>9.33</v>
       </c>
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F39" s="28">
+      <c r="F39">
         <v>12</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39">
         <v>10.035027281452054</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39">
         <v>-0.60502728145205431</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39">
         <v>-1.2395062265263987</v>
       </c>
-      <c r="K39" s="28">
+      <c r="K39">
         <v>57.5</v>
       </c>
-      <c r="L39" s="28">
+      <c r="L39">
         <v>9.42</v>
       </c>
     </row>
     <row r="40" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F40" s="28">
+      <c r="F40">
         <v>13</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40">
         <v>10.488952866368681</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40">
         <v>-1.0289528663686802</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40">
         <v>-2.1079933480110911</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K40">
         <v>62.5</v>
       </c>
-      <c r="L40" s="28">
+      <c r="L40">
         <v>9.43</v>
       </c>
     </row>
     <row r="41" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F41" s="28">
+      <c r="F41">
         <v>14</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41">
         <v>7.7217526660115565</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41">
         <v>-8.175266601155684E-2</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41">
         <v>-0.16748490797515875</v>
       </c>
-      <c r="K41" s="28">
+      <c r="K41">
         <v>67.5</v>
       </c>
-      <c r="L41" s="28">
+      <c r="L41">
         <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="42" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F42" s="28">
+      <c r="F42">
         <v>15</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42">
         <v>6.3687052494331517</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H42">
         <v>0.55129475056684818</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42">
         <v>1.1294255596854061</v>
       </c>
-      <c r="K42" s="28">
+      <c r="K42">
         <v>72.5</v>
       </c>
-      <c r="L42" s="28">
+      <c r="L42">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="43" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F43" s="28">
+      <c r="F43">
         <v>16</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G43">
         <v>8.7867319229313328</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H43">
         <v>0.16326807706866653</v>
       </c>
-      <c r="I43" s="28">
+      <c r="I43">
         <v>0.33448375688764898</v>
       </c>
-      <c r="K43" s="28">
+      <c r="K43">
         <v>77.5</v>
       </c>
-      <c r="L43" s="28">
+      <c r="L43">
         <v>10.08</v>
       </c>
     </row>
     <row r="44" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F44" s="28">
+      <c r="F44">
         <v>17</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44">
         <v>9.3541389040771143</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44">
         <v>-2.4138904077114276E-2</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44">
         <v>-4.9452847536558014E-2</v>
       </c>
-      <c r="K44" s="28">
+      <c r="K44">
         <v>82.5</v>
       </c>
-      <c r="L44" s="28">
+      <c r="L44">
         <v>10.23</v>
       </c>
     </row>
     <row r="45" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F45" s="28">
+      <c r="F45">
         <v>18</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45">
         <v>9.790605812650794</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45">
         <v>0.43939418734920643</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45">
         <v>0.90017731070199347</v>
       </c>
-      <c r="K45" s="28">
+      <c r="K45">
         <v>87.5</v>
       </c>
-      <c r="L45" s="28">
+      <c r="L45">
         <v>11.05</v>
       </c>
     </row>
     <row r="46" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F46" s="28">
+      <c r="F46">
         <v>19</v>
       </c>
-      <c r="G46" s="28">
+      <c r="G46">
         <v>11.239675949115409</v>
       </c>
-      <c r="H46" s="28">
+      <c r="H46">
         <v>0.530324050884591</v>
       </c>
-      <c r="I46" s="28">
+      <c r="I46">
         <v>1.0864633435546072</v>
       </c>
-      <c r="K46" s="28">
+      <c r="K46">
         <v>92.5</v>
       </c>
-      <c r="L46" s="28">
+      <c r="L46">
         <v>11.2</v>
       </c>
     </row>
     <row r="47" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F47" s="29">
+      <c r="F47" s="26">
         <v>20</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G47" s="26">
         <v>7.8439634004121865</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="26">
         <v>-0.4339634004121864</v>
       </c>
-      <c r="I47" s="29">
+      <c r="I47" s="26">
         <v>-0.88905137567437109</v>
       </c>
-      <c r="K47" s="29">
+      <c r="K47" s="26">
         <v>97.5</v>
       </c>
-      <c r="L47" s="29">
+      <c r="L47" s="26">
         <v>11.77</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="L28:L47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L28:L47">
     <sortCondition ref="L28"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimativas do Intervalo de conf" prompt="Intervalos de confiança superior e inferior para a inclinação " sqref="K21:N21"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimativas do Intervalo de conf" prompt="Intervalos de confiança superior e inferior para a inclinação " sqref="K21:N21" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
